--- a/OverTime_Port/bin/Debug/Temp.xlsx
+++ b/OverTime_Port/bin/Debug/Temp.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20392"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A87D31A-E74F-4651-B2E1-035841B7AADB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B9DD419-F85A-4839-B89A-A6BA1B64F5FD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="البدلات" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
   <si>
     <t>بدلات الانتقال و ساعات الاجر الأضافي</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>أجازة رسمية</t>
+  </si>
+  <si>
+    <t>بدل الافطار</t>
   </si>
 </sst>
 </file>
@@ -211,7 +214,18 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -489,8 +503,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -525,7 +540,7 @@
         <v>13</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>3</v>
@@ -769,7 +784,8 @@
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1167,8 +1183,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B6F2F7E-7494-4818-A306-65CCCA6AB02D}">
   <dimension ref="A1:F103"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.4"/>
@@ -1496,6 +1513,12 @@
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
   </mergeCells>
+  <conditionalFormatting sqref="B3:E35">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="VPN">
+      <formula>NOT(ISERROR(SEARCH("VPN",B3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/OverTime_Port/bin/Debug/Temp.xlsx
+++ b/OverTime_Port/bin/Debug/Temp.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20392"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B9DD419-F85A-4839-B89A-A6BA1B64F5FD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BF923FC-8589-4253-9069-AA5361312F27}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -503,7 +503,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" sqref="A1:F1"/>
     </sheetView>
